--- a/Methods.xlsx
+++ b/Methods.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rosa Maessen\Documents\Master\Jaar 2\Graduation project\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B383FE-5F4F-4F30-A542-571EC39FD308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A1BFBE-DB54-4656-9AB2-F96C0589EE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5B3B7A53-6188-4D55-B56B-99B5F2421D00}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{5B3B7A53-6188-4D55-B56B-99B5F2421D00}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
+    <sheet name="Blad4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="65">
   <si>
     <t>Author</t>
   </si>
@@ -77,15 +78,9 @@
     <t>Kolom1</t>
   </si>
   <si>
-    <t>Konidaris</t>
-  </si>
-  <si>
     <t>Niekum</t>
   </si>
   <si>
-    <t>Takano</t>
-  </si>
-  <si>
     <t>Schaal</t>
   </si>
   <si>
@@ -107,9 +102,6 @@
     <t>Maeda</t>
   </si>
   <si>
-    <t>Ude</t>
-  </si>
-  <si>
     <t>Englert</t>
   </si>
   <si>
@@ -119,15 +111,6 @@
     <t xml:space="preserve">Abbeel </t>
   </si>
   <si>
-    <t>Chambers</t>
-  </si>
-  <si>
-    <t>Windrow</t>
-  </si>
-  <si>
-    <t>Pomerleau</t>
-  </si>
-  <si>
     <t>Ross</t>
   </si>
   <si>
@@ -198,6 +181,57 @@
   </si>
   <si>
     <t>HMM</t>
+  </si>
+  <si>
+    <t>HMM + EM</t>
+  </si>
+  <si>
+    <t>Matchin Features</t>
+  </si>
+  <si>
+    <t>Maximum-Entropy (CIRL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaussian </t>
+  </si>
+  <si>
+    <t>DTW + GPR</t>
+  </si>
+  <si>
+    <t>maximum entropy</t>
+  </si>
+  <si>
+    <t>Relative Entropy</t>
+  </si>
+  <si>
+    <t>Deep</t>
+  </si>
+  <si>
+    <t>Apprentenship learning</t>
+  </si>
+  <si>
+    <t>Path Integral Inverse Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>GPIRL</t>
+  </si>
+  <si>
+    <t>BP-AR-HMM + DMP</t>
+  </si>
+  <si>
+    <t>MMP</t>
+  </si>
+  <si>
+    <t>SMILe</t>
+  </si>
+  <si>
+    <t>DAGGER</t>
+  </si>
+  <si>
+    <t>Maximum Causal Entropy</t>
+  </si>
+  <si>
+    <t>EM + DTW</t>
   </si>
 </sst>
 </file>
@@ -275,16 +309,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E2ABCC20-A719-425A-AB4A-73C3F9FE508F}" name="Tabel2" displayName="Tabel2" ref="A1:F35" totalsRowShown="0">
-  <autoFilter ref="A1:F35" xr:uid="{E2ABCC20-A719-425A-AB4A-73C3F9FE508F}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E2ABCC20-A719-425A-AB4A-73C3F9FE508F}" name="Tabel2" displayName="Tabel2" ref="A1:F28" totalsRowShown="0">
+  <autoFilter ref="A1:F28" xr:uid="{E2ABCC20-A719-425A-AB4A-73C3F9FE508F}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Trajectory-based abstraction"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="4">
       <filters>
-        <filter val="BC"/>
+        <filter val="IRL"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E34">
-    <sortCondition ref="A1:A34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E27">
+    <sortCondition ref="A1:A27"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{DECC29F9-7D87-4CC4-8AF4-6CD2D4FDF7A4}" name="Author"/>
@@ -595,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA92DAD0-92F2-4EE1-8293-3433BE9EE5FA}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,7 +670,7 @@
     </row>
     <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>2010</v>
@@ -642,10 +681,16 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>2004</v>
@@ -659,10 +704,13 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>2011</v>
@@ -676,10 +724,13 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>2007</v>
@@ -694,32 +745,35 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B6">
-        <v>1969</v>
+        <v>2016</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B7">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -730,36 +784,36 @@
       <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8">
-        <v>2013</v>
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>46</v>
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>2016</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -770,10 +824,13 @@
       <c r="E9" t="s">
         <v>11</v>
       </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B10">
         <v>2016</v>
@@ -782,21 +839,24 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -804,16 +864,19 @@
       <c r="E11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B12">
-        <v>2013</v>
+        <v>2004</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -821,106 +884,136 @@
       <c r="E12" t="s">
         <v>10</v>
       </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B13">
-        <v>2004</v>
+        <v>2013</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
       </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B15">
         <v>2011</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
       </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>2012</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>2016</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
+      <c r="B18">
         <v>2014</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
         <v>7</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17">
-        <v>2011</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18">
-        <v>2012</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
       <c r="E18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
@@ -928,61 +1021,79 @@
       <c r="D19" t="s">
         <v>5</v>
       </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>2014</v>
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>1988</v>
+        <v>2011</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -993,25 +1104,31 @@
       <c r="E23" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" t="s">
-        <v>35</v>
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>2005</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1022,177 +1139,70 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B26">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>2008</v>
+      </c>
+      <c r="C27" t="s">
         <v>9</v>
       </c>
-      <c r="D26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27">
-        <v>2004</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>1999</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
+        <v>2010</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29">
-        <v>2010</v>
-      </c>
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30">
-        <v>2015</v>
-      </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31">
-        <v>2004</v>
-      </c>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32">
-        <v>2010</v>
-      </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33">
-        <v>1964</v>
-      </c>
-      <c r="C33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34">
-        <v>2008</v>
-      </c>
-      <c r="C34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35">
-        <v>2010</v>
-      </c>
-      <c r="D35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" t="s">
-        <v>11</v>
+      <c r="F28" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1233,7 +1243,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D8177B-1132-416C-85C4-96E31155466E}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1285,29 +1295,162 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00081BFF-2BDB-4785-AB1E-24A2AE6B2F8C}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Methods.xlsx
+++ b/Methods.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rosa Maessen\Documents\Master\Jaar 2\Graduation project\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A1BFBE-DB54-4656-9AB2-F96C0589EE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E79DBDD-F12E-4375-B2C1-B7EE12CEEAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{5B3B7A53-6188-4D55-B56B-99B5F2421D00}"/>
+    <workbookView xWindow="345" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="4" xr2:uid="{5B3B7A53-6188-4D55-B56B-99B5F2421D00}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
     <sheet name="Blad4" sheetId="4" r:id="rId4"/>
+    <sheet name="Blad5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="72">
   <si>
     <t>Author</t>
   </si>
@@ -232,6 +233,27 @@
   </si>
   <si>
     <t>EM + DTW</t>
+  </si>
+  <si>
+    <t>Time dependence</t>
+  </si>
+  <si>
+    <t>Stable attraction to a target position</t>
+  </si>
+  <si>
+    <t>Stochasticity of trajectories</t>
+  </si>
+  <si>
+    <t>Encoding spatial coordination patterns</t>
+  </si>
+  <si>
+    <t>HMMs</t>
+  </si>
+  <si>
+    <t>ProMP</t>
+  </si>
+  <si>
+    <t>SEDS</t>
   </si>
 </sst>
 </file>
@@ -286,11 +308,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1329,8 +1360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00081BFF-2BDB-4785-AB1E-24A2AE6B2F8C}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,4 +1487,74 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2910FD51-10C3-4174-81D5-747C85A698CD}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="A1:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="5" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>